--- a/TRIUNFO.xlsx
+++ b/TRIUNFO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48A3E369-81BC-4948-B20B-10BFF9E7FF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC72754A-A130-40BD-983B-31862F95FEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1226,7 +1226,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{0C01E8BD-934F-4FA6-B1A7-BF68F2C58C54}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{CA81B95A-5E5D-4BCD-A0E8-8A76A7FDFFDE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1256,10 +1256,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28160DC-8270-4781-BDAD-10A807C869BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C0B51B-D560-4985-88E6-36B8CE78BCE4}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1297,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B81FE9-BB63-49FF-8906-9DFA60C184D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82557BF-1309-47F2-83F5-ABA2DD47BE33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1360,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75279292-449B-4710-99B4-4D2E14AD3D0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3982AFE2-1611-451C-9D6E-EC2BAAFD6D79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1379,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDFE0B3C-4014-44F1-71B4-7E15443466C8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8C1591-03D2-B06C-080D-FA3D3C1B1489}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6904B47-38EA-B56F-1DE7-039AAF80D355}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7967C472-D161-9ACC-8245-3971C430CE8B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1447,7 +1447,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A4CDE2-54EC-2339-0117-43324F3AF765}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FD542DD-9873-FCAE-1BA3-97E650171B96}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1478,7 +1478,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DD88A2-C2D3-1074-B3F8-0A88213EEF54}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775CC229-7E27-32E7-5638-30FD6E75E206}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1509,7 +1509,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B43A85-7F67-B0B6-4EDF-9736E0546BB7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FBEBBDA-8241-5210-4D72-1BB327990DBC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1552,7 +1552,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC02EF7F-A47E-4503-BB31-9B29A2FD42DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49332B39-B382-46CC-982D-940B87A32B09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1590,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400A9ACA-7DF3-4799-B36E-075EB74E4C4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311A5B79-D0A8-41F3-B4FA-7FE1053E9632}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1633,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B426FEC0-E021-426F-9CE9-2950555DBC54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DC7F35-6E47-40BF-B7E0-F0724F9C5278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8974C7BD-4614-41A7-B519-68AF3E14A98C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EAB6F3-8CEF-4CC0-9E14-0A6A8EEB9ADF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/TRIUNFO.xlsx
+++ b/TRIUNFO.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC72754A-A130-40BD-983B-31862F95FEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B2F2CD2-2783-4985-894A-923885310866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="302">
   <si>
     <t>COMARCA</t>
   </si>
@@ -932,15 +931,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>TRIUNFO</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1206,27 +1196,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{CA81B95A-5E5D-4BCD-A0E8-8A76A7FDFFDE}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{49416DE4-28A9-495B-AF10-4A5C8207DE3F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1256,10 +1231,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C0B51B-D560-4985-88E6-36B8CE78BCE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9BE71E0-3B1F-4304-9AFA-E45EA37812BE}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1272,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82557BF-1309-47F2-83F5-ABA2DD47BE33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070BDAAD-DFFE-48AF-BD88-59DEB2CB5F8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1335,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3982AFE2-1611-451C-9D6E-EC2BAAFD6D79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B8E9DF-CE12-4109-ABB5-454D2AC48B18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1354,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8C1591-03D2-B06C-080D-FA3D3C1B1489}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{137BBDF6-F4D9-28EB-3E7E-980E2900A566}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1428,7 +1403,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7967C472-D161-9ACC-8245-3971C430CE8B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4C6ED8-77C7-B387-6282-96B505A5D4F8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1447,7 +1422,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FD542DD-9873-FCAE-1BA3-97E650171B96}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A185BA1B-0D86-2D99-B4F1-66180FA1A2BB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1478,7 +1453,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775CC229-7E27-32E7-5638-30FD6E75E206}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55573686-BD85-1510-C4EE-E8321AF4BFA9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1509,7 +1484,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FBEBBDA-8241-5210-4D72-1BB327990DBC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17E5A09-8EBC-D267-A74F-479AE07CE572}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1552,7 +1527,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49332B39-B382-46CC-982D-940B87A32B09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0F2231-5249-449F-8EFC-55A84E75F20C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1565,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311A5B79-D0A8-41F3-B4FA-7FE1053E9632}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54339EE8-4B7C-414B-9751-4EED5227FF04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1608,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DC7F35-6E47-40BF-B7E0-F0724F9C5278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B38BC4-AF3C-4A91-B6C3-6D85DF352E3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EAB6F3-8CEF-4CC0-9E14-0A6A8EEB9ADF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BAD405-3C9E-4AD8-BFFF-C56DF6A7826D}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1958,98 +1933,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="35"/>
-    <col min="6" max="6" width="2" style="35" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="35"/>
+    <col min="1" max="5" width="12.5703125" style="30"/>
+    <col min="6" max="6" width="2" style="30" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="30" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="34"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="34"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="34"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="34"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="34"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="34"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="34"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="34"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="34"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="34"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="34"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="34"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="34"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="34"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="34"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="34"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="34"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="34"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="34"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="34"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="34"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="34"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="34"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="34"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="34"/>
+      <c r="F29" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5544,52 +5519,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="E1" s="30">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="33">
-        <v>12</v>
-      </c>
-      <c r="C2" s="31">
-        <v>7.9354582727152493E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/TRIUNFO.xlsx
+++ b/TRIUNFO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B2F2CD2-2783-4985-894A-923885310866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{407A38AC-E13F-4308-B359-F63EE0CD2427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,7 +1201,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{49416DE4-28A9-495B-AF10-4A5C8207DE3F}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{39A10BA5-714B-4F1C-A8F0-3CB16DCC3C8A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1231,10 +1231,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9BE71E0-3B1F-4304-9AFA-E45EA37812BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF543736-9A00-41C2-AC95-7FF115AEB61E}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1272,7 +1272,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070BDAAD-DFFE-48AF-BD88-59DEB2CB5F8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D20A6743-FA80-443B-882A-323DFF0F00E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B8E9DF-CE12-4109-ABB5-454D2AC48B18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662B73B3-4559-44CB-9D25-2B84D5864569}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1354,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{137BBDF6-F4D9-28EB-3E7E-980E2900A566}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E381F06C-8F6B-6EC3-0E75-08543C8D2098}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4C6ED8-77C7-B387-6282-96B505A5D4F8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{209D390D-29E7-A035-252D-2ADD8A1E0A7F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1422,7 +1422,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A185BA1B-0D86-2D99-B4F1-66180FA1A2BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D201469-63D4-5EA3-9634-E010918A5B35}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1453,7 +1453,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55573686-BD85-1510-C4EE-E8321AF4BFA9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B5FCC5-C5FF-FBE5-41AB-C4C95F1C8AC4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1484,7 +1484,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17E5A09-8EBC-D267-A74F-479AE07CE572}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF60B73-162C-56C6-21B3-319C313F9831}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1527,7 +1527,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0F2231-5249-449F-8EFC-55A84E75F20C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC39838-E614-401F-ACA8-E850693C8E02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1565,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54339EE8-4B7C-414B-9751-4EED5227FF04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E226AE-26E5-41EE-AB5F-B339116697CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,50 +1590,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B38BC4-AF3C-4A91-B6C3-6D85DF352E3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1921,7 +1877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BAD405-3C9E-4AD8-BFFF-C56DF6A7826D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7F775C-D23E-478A-BF2D-444E359F25D7}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
